--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_20_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>585193.4320779743</v>
+        <v>582492.8946091493</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673425</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
         <v>239.8079481415045</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.93308893378712</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.9169039459368</v>
+        <v>171.0058151007997</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="S2" t="n">
         <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>239.8079481415045</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>7.853633872790177</v>
       </c>
       <c r="F3" t="n">
-        <v>93.96282101814703</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.4458084395867</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>195.0194028815133</v>
@@ -795,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.29200224366422</v>
       </c>
       <c r="S4" t="n">
         <v>205.3658819001187</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="V4" t="n">
-        <v>37.60093563904284</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>239.8079481415045</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>117.861220454542</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.6375786784521</v>
+        <v>12.32572783638013</v>
       </c>
       <c r="H5" t="n">
-        <v>308.9865017432184</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>81.20914862395259</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>141.1814615316176</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1074921335361</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,16 +984,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.649972676587803</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.7506765600919</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>96.8519573590077</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55541033175714</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>1.261993899359325</v>
+        <v>1.261993899359169</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>142.096855515207</v>
       </c>
       <c r="T6" t="n">
         <v>193.7444632813738</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>22.61614580784706</v>
       </c>
     </row>
     <row r="7">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.2122538222641</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>117.2496683371441</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7444959205694</v>
+        <v>200.7444959205693</v>
       </c>
       <c r="T7" t="n">
         <v>222.2398575583236</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2461902262361</v>
+        <v>268.6061620719865</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>243.0006064908042</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1148,7 +1148,7 @@
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>363.5377921948954</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>111.5109739231589</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>8.906162259192234</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,25 +1370,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>130.1481484378309</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>222.6434959374209</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>24.14662204184549</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>98.88510599615208</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1467,7 +1467,7 @@
         <v>87.2605838181255</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530787</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>118.0940871474035</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905236</v>
       </c>
       <c r="S13" t="n">
-        <v>29.96066207144082</v>
+        <v>186.2346889920369</v>
       </c>
       <c r="T13" t="n">
         <v>218.682419239904</v>
@@ -1588,7 +1588,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1768,22 +1768,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>102.1557845699822</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>245.8796921214428</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634796</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>134.3542165280282</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936161</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892473</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881295</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936154</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>72.26558381700042</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365949</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.683041620682</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>131.4372279019615</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699796</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G28" t="n">
-        <v>27.0291980517604</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444135</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="30">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337069</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>145.2857567969026</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3202,10 +3202,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,13 +3244,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>214.610273148518</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>180.9726497471647</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936192</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444128</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833787</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673021</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>99.97427419833794</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018859</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,46 +4304,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>345.9866426825728</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="C2" t="n">
-        <v>103.7563920345884</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="D2" t="n">
-        <v>39.17751432369232</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="E2" t="n">
-        <v>39.17751432369232</v>
+        <v>560.7865044148618</v>
       </c>
       <c r="F2" t="n">
-        <v>32.23201357448885</v>
+        <v>553.8410036656584</v>
       </c>
       <c r="G2" t="n">
-        <v>19.18463585132036</v>
+        <v>381.107857099194</v>
       </c>
       <c r="H2" t="n">
-        <v>19.18463585132036</v>
+        <v>138.8776064512096</v>
       </c>
       <c r="I2" t="n">
         <v>19.18463585132036</v>
       </c>
       <c r="J2" t="n">
-        <v>40.41888584470354</v>
+        <v>40.41888584470348</v>
       </c>
       <c r="K2" t="n">
         <v>122.9820404192956</v>
       </c>
       <c r="L2" t="n">
-        <v>262.3106962605483</v>
+        <v>262.3106962605484</v>
       </c>
       <c r="M2" t="n">
-        <v>449.0101090859556</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N2" t="n">
-        <v>643.3443219779376</v>
+        <v>643.3443219779377</v>
       </c>
       <c r="O2" t="n">
-        <v>813.5133472948968</v>
+        <v>813.5133472948971</v>
       </c>
       <c r="P2" t="n">
         <v>924.2476725444232</v>
@@ -4352,28 +4352,28 @@
         <v>959.231792566018</v>
       </c>
       <c r="R2" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="S2" t="n">
-        <v>803.0167550628461</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="T2" t="n">
-        <v>588.2168933305571</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="U2" t="n">
-        <v>588.2168933305571</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="V2" t="n">
-        <v>345.9866426825728</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="W2" t="n">
-        <v>345.9866426825728</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="X2" t="n">
-        <v>345.9866426825728</v>
+        <v>803.0167550628462</v>
       </c>
       <c r="Y2" t="n">
-        <v>345.9866426825728</v>
+        <v>803.0167550628462</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>319.2388882888301</v>
+        <v>176.0520090204405</v>
       </c>
       <c r="C3" t="n">
-        <v>319.2388882888301</v>
+        <v>176.0520090204405</v>
       </c>
       <c r="D3" t="n">
-        <v>319.2388882888301</v>
+        <v>27.11759935918923</v>
       </c>
       <c r="E3" t="n">
-        <v>160.0014332833746</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="H3" t="n">
-        <v>65.0894928610039</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="I3" t="n">
         <v>19.18463585132036</v>
@@ -4413,46 +4413,46 @@
         <v>86.79245551467723</v>
       </c>
       <c r="L3" t="n">
-        <v>290.1388331607131</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M3" t="n">
-        <v>469.6361695153178</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N3" t="n">
-        <v>668.2929111679822</v>
+        <v>602.17613153764</v>
       </c>
       <c r="O3" t="n">
-        <v>827.8052238367426</v>
+        <v>761.6884442064004</v>
       </c>
       <c r="P3" t="n">
-        <v>936.4948513640412</v>
+        <v>870.378071733699</v>
       </c>
       <c r="Q3" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R3" t="n">
-        <v>959.231792566018</v>
+        <v>938.1198929682049</v>
       </c>
       <c r="S3" t="n">
-        <v>959.231792566018</v>
+        <v>788.6531038308397</v>
       </c>
       <c r="T3" t="n">
-        <v>762.2424967261056</v>
+        <v>591.6638079909272</v>
       </c>
       <c r="U3" t="n">
-        <v>762.2424967261056</v>
+        <v>591.6638079909272</v>
       </c>
       <c r="V3" t="n">
-        <v>527.090388494363</v>
+        <v>591.6638079909272</v>
       </c>
       <c r="W3" t="n">
-        <v>527.090388494363</v>
+        <v>591.6638079909272</v>
       </c>
       <c r="X3" t="n">
-        <v>319.2388882888301</v>
+        <v>383.8123077853944</v>
       </c>
       <c r="Y3" t="n">
-        <v>319.2388882888301</v>
+        <v>176.0520090204405</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>485.8212138506658</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="C4" t="n">
-        <v>485.8212138506658</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="D4" t="n">
-        <v>335.7045744383301</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="E4" t="n">
-        <v>187.791480855937</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="F4" t="n">
-        <v>187.791480855937</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="G4" t="n">
         <v>19.18463585132036</v>
@@ -4501,37 +4501,37 @@
         <v>716.1585259030903</v>
       </c>
       <c r="O4" t="n">
-        <v>830.3658965470427</v>
+        <v>830.3658965470428</v>
       </c>
       <c r="P4" t="n">
-        <v>955.8134731456582</v>
+        <v>955.8134731456583</v>
       </c>
       <c r="Q4" t="n">
-        <v>959.231792566018</v>
+        <v>959.2317925660182</v>
       </c>
       <c r="R4" t="n">
-        <v>959.231792566018</v>
+        <v>936.7146185825189</v>
       </c>
       <c r="S4" t="n">
-        <v>751.7915078184234</v>
+        <v>729.2743338349243</v>
       </c>
       <c r="T4" t="n">
-        <v>751.7915078184234</v>
+        <v>503.6451371472892</v>
       </c>
       <c r="U4" t="n">
-        <v>751.7915078184234</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="V4" t="n">
-        <v>713.8107647486831</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="W4" t="n">
-        <v>713.8107647486831</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="X4" t="n">
-        <v>485.8212138506658</v>
+        <v>19.18463585132036</v>
       </c>
       <c r="Y4" t="n">
-        <v>485.8212138506658</v>
+        <v>19.18463585132036</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1289.781659443694</v>
+        <v>520.0644328339793</v>
       </c>
       <c r="C5" t="n">
-        <v>1289.781659443694</v>
+        <v>520.0644328339793</v>
       </c>
       <c r="D5" t="n">
-        <v>1170.729921610824</v>
+        <v>520.0644328339793</v>
       </c>
       <c r="E5" t="n">
-        <v>1170.729921610824</v>
+        <v>134.276180235735</v>
       </c>
       <c r="F5" t="n">
-        <v>759.7440168212161</v>
+        <v>127.3306794865315</v>
       </c>
       <c r="G5" t="n">
-        <v>344.9585838126786</v>
+        <v>114.8804493487738</v>
       </c>
       <c r="H5" t="n">
-        <v>32.85100629427617</v>
+        <v>114.8804493487738</v>
       </c>
       <c r="I5" t="n">
-        <v>32.85100629427617</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="J5" t="n">
-        <v>103.7588362828595</v>
+        <v>103.7588362828601</v>
       </c>
       <c r="K5" t="n">
-        <v>260.7698107230103</v>
+        <v>260.7698107230114</v>
       </c>
       <c r="L5" t="n">
-        <v>492.4575702340379</v>
+        <v>492.4575702340398</v>
       </c>
       <c r="M5" t="n">
-        <v>781.924281586165</v>
+        <v>781.924281586168</v>
       </c>
       <c r="N5" t="n">
-        <v>1080.688675334932</v>
+        <v>1080.688675334936</v>
       </c>
       <c r="O5" t="n">
-        <v>1349.468159143667</v>
+        <v>1349.468159143671</v>
       </c>
       <c r="P5" t="n">
-        <v>1544.364229282335</v>
+        <v>1544.364229282339</v>
       </c>
       <c r="Q5" t="n">
-        <v>1642.550314713808</v>
+        <v>1642.550314713813</v>
       </c>
       <c r="R5" t="n">
-        <v>1642.550314713808</v>
+        <v>1642.550314713813</v>
       </c>
       <c r="S5" t="n">
-        <v>1642.550314713808</v>
+        <v>1499.942777813189</v>
       </c>
       <c r="T5" t="n">
-        <v>1642.550314713808</v>
+        <v>1499.942777813189</v>
       </c>
       <c r="U5" t="n">
-        <v>1642.550314713808</v>
+        <v>1246.298846365173</v>
       </c>
       <c r="V5" t="n">
-        <v>1642.550314713808</v>
+        <v>1246.298846365173</v>
       </c>
       <c r="W5" t="n">
-        <v>1289.781659443694</v>
+        <v>893.5301910950591</v>
       </c>
       <c r="X5" t="n">
-        <v>1289.781659443694</v>
+        <v>520.0644328339793</v>
       </c>
       <c r="Y5" t="n">
-        <v>1289.781659443694</v>
+        <v>520.0644328339793</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>312.4550637967454</v>
+        <v>353.8385935485183</v>
       </c>
       <c r="C6" t="n">
-        <v>312.4550637967454</v>
+        <v>179.3855642673913</v>
       </c>
       <c r="D6" t="n">
-        <v>312.4550637967454</v>
+        <v>179.3855642673913</v>
       </c>
       <c r="E6" t="n">
-        <v>312.4550637967454</v>
+        <v>179.3855642673913</v>
       </c>
       <c r="F6" t="n">
-        <v>302.7076166486769</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="G6" t="n">
-        <v>165.5857211334326</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="H6" t="n">
-        <v>67.75546117483894</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="I6" t="n">
-        <v>32.85100629427617</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="J6" t="n">
-        <v>107.0240749768976</v>
+        <v>181.0955020982229</v>
       </c>
       <c r="K6" t="n">
-        <v>225.197788814089</v>
+        <v>299.2692159354147</v>
       </c>
       <c r="L6" t="n">
-        <v>430.4194717654287</v>
+        <v>504.490898886755</v>
       </c>
       <c r="M6" t="n">
-        <v>689.260364260469</v>
+        <v>897.2368791189626</v>
       </c>
       <c r="N6" t="n">
-        <v>969.3606498904868</v>
+        <v>1177.337164748981</v>
       </c>
       <c r="O6" t="n">
-        <v>1203.377894010696</v>
+        <v>1411.354408869191</v>
       </c>
       <c r="P6" t="n">
-        <v>1371.864297498568</v>
+        <v>1579.840812357063</v>
       </c>
       <c r="Q6" t="n">
-        <v>1642.550314713808</v>
+        <v>1642.550314713813</v>
       </c>
       <c r="R6" t="n">
-        <v>1641.275573401324</v>
+        <v>1641.275573401329</v>
       </c>
       <c r="S6" t="n">
-        <v>1641.275573401324</v>
+        <v>1497.743396113241</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.574095339331</v>
+        <v>1302.041918051248</v>
       </c>
       <c r="U6" t="n">
-        <v>1217.456327727176</v>
+        <v>1073.924150439093</v>
       </c>
       <c r="V6" t="n">
-        <v>982.3042194954337</v>
+        <v>838.7720422073508</v>
       </c>
       <c r="W6" t="n">
-        <v>728.0668627672321</v>
+        <v>584.5346854791492</v>
       </c>
       <c r="X6" t="n">
-        <v>520.2153625616993</v>
+        <v>376.6831852736163</v>
       </c>
       <c r="Y6" t="n">
-        <v>312.4550637967454</v>
+        <v>353.8385935485183</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.7409537921865</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="C7" t="n">
-        <v>179.7409537921865</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="D7" t="n">
-        <v>179.7409537921865</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="E7" t="n">
-        <v>179.7409537921865</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="F7" t="n">
-        <v>32.85100629427617</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="G7" t="n">
-        <v>32.85100629427617</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="H7" t="n">
-        <v>32.85100629427617</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="I7" t="n">
-        <v>32.85100629427617</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="J7" t="n">
-        <v>33.89295411735786</v>
+        <v>33.8929541173581</v>
       </c>
       <c r="K7" t="n">
-        <v>165.4420311779929</v>
+        <v>165.4420311779934</v>
       </c>
       <c r="L7" t="n">
-        <v>389.3059936565127</v>
+        <v>389.3059936565135</v>
       </c>
       <c r="M7" t="n">
-        <v>635.7282771409643</v>
+        <v>635.7282771409654</v>
       </c>
       <c r="N7" t="n">
-        <v>881.7258059268943</v>
+        <v>881.7258059268955</v>
       </c>
       <c r="O7" t="n">
-        <v>1092.928044100017</v>
+        <v>1092.928044100018</v>
       </c>
       <c r="P7" t="n">
-        <v>1250.127362942349</v>
+        <v>1250.127362942351</v>
       </c>
       <c r="Q7" t="n">
-        <v>1275.528942871343</v>
+        <v>1275.528942871345</v>
       </c>
       <c r="R7" t="n">
-        <v>1157.094934449986</v>
+        <v>1275.528942871345</v>
       </c>
       <c r="S7" t="n">
-        <v>954.3227163484005</v>
+        <v>1072.75672476976</v>
       </c>
       <c r="T7" t="n">
-        <v>729.8380117440332</v>
+        <v>848.272020165393</v>
       </c>
       <c r="U7" t="n">
-        <v>440.7004458589462</v>
+        <v>576.9526645371237</v>
       </c>
       <c r="V7" t="n">
-        <v>186.0159576530594</v>
+        <v>322.2681763312369</v>
       </c>
       <c r="W7" t="n">
-        <v>186.0159576530594</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="X7" t="n">
-        <v>186.0159576530594</v>
+        <v>32.85100629427627</v>
       </c>
       <c r="Y7" t="n">
-        <v>186.0159576530594</v>
+        <v>32.85100629427627</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829028</v>
+        <v>742.878294495355</v>
       </c>
       <c r="C8" t="n">
-        <v>813.9105847575083</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="D8" t="n">
-        <v>455.6448861507579</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>373.9157775549434</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>366.9702768057399</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872908</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926627</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190807</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>1852.996172847236</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>1500.227517577122</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>1133.017626471167</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.96558289315</v>
+        <v>742.878294495355</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966398</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155128</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542614</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488059</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756909</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182533</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812058006</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495377</v>
+        <v>932.4978103101002</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N9" t="n">
-        <v>1468.399656105703</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O9" t="n">
-        <v>2102.578639884741</v>
+        <v>2199.840679460313</v>
       </c>
       <c r="P9" t="n">
-        <v>2349.761373717038</v>
+        <v>2447.02341329261</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047139</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>1769.368633815396</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087195</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881662</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>1099.519478116708</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="C10" t="n">
-        <v>461.9138669598622</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="D10" t="n">
-        <v>311.7972275475264</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="E10" t="n">
-        <v>163.8841339651333</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>60.2429100621367</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>825.1371474485143</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>570.4526592426274</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>281.0354892056668</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>60.2429100621367</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1789.352881002868</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="C11" t="n">
-        <v>1420.390364062456</v>
+        <v>1485.490329133574</v>
       </c>
       <c r="D11" t="n">
-        <v>1288.927587862627</v>
+        <v>1127.224630526824</v>
       </c>
       <c r="E11" t="n">
-        <v>903.1393352643827</v>
+        <v>741.43637792858</v>
       </c>
       <c r="F11" t="n">
-        <v>492.1534304747751</v>
+        <v>741.4363779285799</v>
       </c>
       <c r="G11" t="n">
-        <v>77.53766591592077</v>
+        <v>326.8206133697254</v>
       </c>
       <c r="H11" t="n">
-        <v>77.53766591592077</v>
+        <v>101.9281932309162</v>
       </c>
       <c r="I11" t="n">
         <v>77.53766591592077</v>
@@ -5054,7 +5054,7 @@
         <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535298</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479997</v>
@@ -5063,28 +5063,28 @@
         <v>3789.749829464063</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796039</v>
       </c>
       <c r="S11" t="n">
-        <v>3876.883295796038</v>
+        <v>3776.99935034538</v>
       </c>
       <c r="T11" t="n">
-        <v>3876.883295796038</v>
+        <v>3573.020743926744</v>
       </c>
       <c r="U11" t="n">
-        <v>3623.389353917566</v>
+        <v>3319.526802048273</v>
       </c>
       <c r="V11" t="n">
-        <v>3292.326466573995</v>
+        <v>2988.463914704702</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.557811303881</v>
+        <v>2635.695259434588</v>
       </c>
       <c r="X11" t="n">
-        <v>2566.092053042801</v>
+        <v>2262.229501173508</v>
       </c>
       <c r="Y11" t="n">
-        <v>2175.952721066989</v>
+        <v>1872.090169197696</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722697</v>
+        <v>312.3928428722696</v>
       </c>
       <c r="G12" t="n">
-        <v>176.274091040601</v>
+        <v>176.2740910406009</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390852</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
         <v>77.53766591592077</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592077</v>
+        <v>193.8410919870414</v>
       </c>
       <c r="K12" t="n">
-        <v>354.4735703335451</v>
+        <v>470.7769964046659</v>
       </c>
       <c r="L12" t="n">
-        <v>773.1706109914968</v>
+        <v>488.5008422034056</v>
       </c>
       <c r="M12" t="n">
-        <v>1281.127176948025</v>
+        <v>996.4574081599342</v>
       </c>
       <c r="N12" t="n">
-        <v>1816.936486649235</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2284.877530981758</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>712.0015650273683</v>
+        <v>365.7608055583765</v>
       </c>
       <c r="C13" t="n">
-        <v>543.0653820994614</v>
+        <v>196.8246226304697</v>
       </c>
       <c r="D13" t="n">
-        <v>392.9487426871257</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="E13" t="n">
-        <v>245.0356491047326</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="F13" t="n">
-        <v>245.0356491047325</v>
+        <v>77.53766591592077</v>
       </c>
       <c r="G13" t="n">
         <v>77.53766591592077</v>
@@ -5203,7 +5203,7 @@
         <v>364.1690246648146</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344811</v>
+        <v>710.5788654344813</v>
       </c>
       <c r="M13" t="n">
         <v>1086.20859537694</v>
@@ -5215,34 +5215,34 @@
         <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742809</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742809</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>2107.099673721151</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1886.208341155592</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1597.116648105042</v>
+        <v>1358.644593842772</v>
       </c>
       <c r="V13" t="n">
-        <v>1342.432159899156</v>
+        <v>1103.960105636885</v>
       </c>
       <c r="W13" t="n">
-        <v>1342.432159899156</v>
+        <v>814.542935599924</v>
       </c>
       <c r="X13" t="n">
-        <v>1114.442609001138</v>
+        <v>586.5533847019067</v>
       </c>
       <c r="Y13" t="n">
-        <v>893.650029857608</v>
+        <v>365.7608055583765</v>
       </c>
     </row>
     <row r="14">
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5358,25 +5358,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>197.0043242297713</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>197.0043242297714</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,46 +5519,46 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M18" t="n">
-        <v>923.0670414349511</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N18" t="n">
-        <v>1550.665004989558</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O18" t="n">
         <v>1896.176478190825</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>983.3556038098242</v>
+        <v>513.853600740068</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121611</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
         <v>826.140538179774</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570817</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V19" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W19" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X19" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703078</v>
       </c>
     </row>
     <row r="20">
@@ -5726,61 +5726,61 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5792,10 +5792,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5823,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400673</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121605</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2264.108249235166</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138372</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703071</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5987,22 +5987,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>849.3843576263198</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C25" t="n">
-        <v>680.4481746984129</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036841</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797186</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853359</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T25" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U25" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V25" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W25" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X25" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1492342949678</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N27" t="n">
-        <v>2148.04349261611</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121636</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121636</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121636</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121636</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6385,10 +6385,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6412,7 +6412,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
         <v>1688.385853854706</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138412</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6452,7 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6461,7 +6461,7 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111729</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075822</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429802</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429802</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6622,19 +6622,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703115</v>
       </c>
     </row>
     <row r="32">
@@ -6674,46 +6674,46 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,10 +6725,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466572</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>801.6605733532801</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="C34" t="n">
-        <v>632.7243904253733</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D34" t="n">
-        <v>632.7243904253733</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1204.10161732705</v>
+        <v>961.4835393015906</v>
       </c>
       <c r="Y34" t="n">
-        <v>983.3090381835199</v>
+        <v>740.6909601580605</v>
       </c>
     </row>
     <row r="35">
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7017,22 +7017,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121642</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>198.0274703142539</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7099,7 +7099,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S37" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362677</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188002</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908933</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908933</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908933</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7354,7 +7354,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
         <v>2197.062545487567</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290587</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925701</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490399</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,7 +7591,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
@@ -7600,19 +7600,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="44">
@@ -7628,13 +7628,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7731,13 +7731,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O45" t="n">
         <v>2129.438138565707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998284</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7807,19 +7807,19 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797738</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.76484885336</v>
@@ -7828,7 +7828,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
         <v>2197.062545487567</v>
@@ -7840,16 +7840,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>66.78462588923455</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>66.78462588923465</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8149,7 +8149,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>102.5492171288659</v>
+        <v>102.549217128866</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>28.58095358104362</v>
+        <v>28.5809535810433</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>51.27141198553514</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8301,7 +8301,7 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>135.2576643809766</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.9044714621888</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>186.5911984019048</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039159</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>98.24448441976895</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23258,25 +23258,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>224.534893182852</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>67.33400740195387</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,10 +23306,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>201.9388203544492</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>30.52138587080887</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>156.274026920596</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>38.13892827624174</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>6.257951202385252</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>32.89260457059962</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.26526345295308</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>43.26526345295375</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>213.9188905722437</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>48.39475227997582</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>46.45968844823279</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G28" t="n">
-        <v>138.4949402405084</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>46.45968844823039</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>72.11969353038569</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,10 +25120,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,13 +25132,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>37.52737017531003</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>44.73700564187243</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25321,13 +25321,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>62.35543909864965</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459338</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194208</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393099</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459331</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>927935.4346432418</v>
+        <v>927935.434643242</v>
       </c>
     </row>
     <row r="6">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321418</v>
+        <v>410520.8849321417</v>
       </c>
       <c r="C2" t="n">
-        <v>410520.8849321417</v>
+        <v>410520.8849321415</v>
       </c>
       <c r="D2" t="n">
         <v>410520.8849321418</v>
@@ -26323,10 +26323,10 @@
         <v>366294.6221371982</v>
       </c>
       <c r="F2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450031</v>
       </c>
       <c r="G2" t="n">
-        <v>403573.2998450031</v>
+        <v>403573.299845003</v>
       </c>
       <c r="H2" t="n">
         <v>403573.2998450031</v>
@@ -26338,19 +26338,19 @@
         <v>403573.2998450031</v>
       </c>
       <c r="K2" t="n">
-        <v>403573.2998450032</v>
+        <v>403573.2998450029</v>
       </c>
       <c r="L2" t="n">
         <v>403573.2998450031</v>
       </c>
       <c r="M2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="N2" t="n">
+        <v>403573.2998450031</v>
+      </c>
+      <c r="O2" t="n">
         <v>403573.299845003</v>
-      </c>
-      <c r="N2" t="n">
-        <v>403573.299845003</v>
-      </c>
-      <c r="O2" t="n">
-        <v>403573.2998450031</v>
       </c>
       <c r="P2" t="n">
         <v>403573.2998450031</v>
@@ -26366,16 +26366,16 @@
         <v>652246.4444800889</v>
       </c>
       <c r="C3" t="n">
-        <v>189098.6751706849</v>
+        <v>189098.6751706864</v>
       </c>
       <c r="D3" t="n">
-        <v>237173.515051771</v>
+        <v>237173.51505177</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545776</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704284</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62744.31078353587</v>
+        <v>62744.31078353588</v>
       </c>
       <c r="K3" t="n">
-        <v>43966.08035203312</v>
+        <v>43966.08035203344</v>
       </c>
       <c r="L3" t="n">
-        <v>58197.58031572274</v>
+        <v>58197.58031572256</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.40371273085</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202352</v>
+        <v>49839.57413202344</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,10 +26418,10 @@
         <v>261062.8075060264</v>
       </c>
       <c r="C4" t="n">
-        <v>210476.986935161</v>
+        <v>210476.9869351606</v>
       </c>
       <c r="D4" t="n">
-        <v>143951.0939828189</v>
+        <v>143951.0939828188</v>
       </c>
       <c r="E4" t="n">
         <v>12891.4455871839</v>
@@ -26433,31 +26433,31 @@
         <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.86414683042</v>
+        <v>12996.86414683043</v>
       </c>
       <c r="I4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683046</v>
       </c>
       <c r="J4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="K4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="L4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="M4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="N4" t="n">
-        <v>12996.86414683045</v>
+        <v>12996.86414683048</v>
       </c>
       <c r="O4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="P4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683046</v>
       </c>
     </row>
     <row r="5">
@@ -26470,13 +26470,13 @@
         <v>61145.70223437328</v>
       </c>
       <c r="C5" t="n">
-        <v>74737.94401911811</v>
+        <v>74737.94401911821</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.4850673857</v>
+        <v>85137.48506738571</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-563934.0692883468</v>
+        <v>-563934.0692883469</v>
       </c>
       <c r="C6" t="n">
-        <v>-63792.72119282231</v>
+        <v>-63792.72119282366</v>
       </c>
       <c r="D6" t="n">
-        <v>-63541.49654229279</v>
+        <v>-63541.49654229174</v>
       </c>
       <c r="E6" t="n">
-        <v>-45311.46587194905</v>
+        <v>-45532.59718592367</v>
       </c>
       <c r="F6" t="n">
-        <v>100145.6371038371</v>
+        <v>100110.8991784014</v>
       </c>
       <c r="G6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="H6" t="n">
-        <v>289453.9058742656</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="I6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
       <c r="J6" t="n">
-        <v>226709.5950907296</v>
+        <v>226674.8571652939</v>
       </c>
       <c r="K6" t="n">
-        <v>245487.8255222325</v>
+        <v>245453.0875967962</v>
       </c>
       <c r="L6" t="n">
-        <v>231256.3255585428</v>
+        <v>231221.5876331073</v>
       </c>
       <c r="M6" t="n">
-        <v>207556.5021615345</v>
+        <v>207521.764236099</v>
       </c>
       <c r="N6" t="n">
-        <v>239614.3317422419</v>
+        <v>239579.5938168064</v>
       </c>
       <c r="O6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488297</v>
       </c>
       <c r="P6" t="n">
-        <v>289453.9058742655</v>
+        <v>289419.1679488298</v>
       </c>
     </row>
   </sheetData>
@@ -26704,13 +26704,13 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.090792417868801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26738,10 +26738,10 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>740.5311575902854</v>
+        <v>740.5311575902865</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1202.241237214951</v>
@@ -26790,13 +26790,13 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>410.6375786784521</v>
+        <v>410.6375786784533</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490095</v>
+        <v>969.2208239490096</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.613490522336001e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26960,16 +26960,16 @@
         <v>593.4761003380646</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0550572522208</v>
+        <v>147.0550572522219</v>
       </c>
       <c r="D3" t="n">
-        <v>193.5337345272537</v>
+        <v>193.5337345272529</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974114</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267229</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8296305369475</v>
+        <v>170.8296305369488</v>
       </c>
       <c r="D4" t="n">
-        <v>229.9472534215868</v>
+        <v>229.9472534215857</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>239.8079481415047</v>
+        <v>239.8079481415048</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369475</v>
+        <v>170.8296305369488</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215865</v>
+        <v>229.9472534215857</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506385</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>239.8079481415045</v>
       </c>
       <c r="K4" t="n">
-        <v>170.8296305369475</v>
+        <v>170.8296305369488</v>
       </c>
       <c r="L4" t="n">
-        <v>229.9472534215868</v>
+        <v>229.9472534215857</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489705</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506389</v>
+        <v>203.4874641506387</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>125.464943629503</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>290.7499526868958</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>142.1224219307572</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>241.9110888451371</v>
       </c>
       <c r="H2" t="n">
-        <v>315.0408840752156</v>
+        <v>75.23293593371105</v>
       </c>
       <c r="I2" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
         <v>251.1547862223006</v>
       </c>
       <c r="V2" t="n">
-        <v>87.94431032863039</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>149.7914465826108</v>
       </c>
       <c r="F3" t="n">
-        <v>51.10639137523685</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0669836643703</v>
@@ -27476,7 +27476,7 @@
         <v>99.90681807664346</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,10 +27503,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.90078060183515</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>147.9721212459916</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -27515,7 +27515,7 @@
         <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27540,16 +27540,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
         <v>152.7120966692326</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.1731816677913</v>
+        <v>106.8811794241271</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.260654658097</v>
+        <v>46.45270651659244</v>
       </c>
       <c r="V4" t="n">
-        <v>214.5367076847852</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>46.71505019508646</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27619,22 +27619,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>236.821821166141</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>1.688149157928049</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.9865017432184</v>
       </c>
       <c r="I5" t="n">
-        <v>95.70472393020698</v>
+        <v>14.49557530625422</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>141.1814615316177</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.0639896953817</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1074921335361</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27695,7 +27695,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,16 +27704,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>135.4192397167961</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7506765600919</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.85195735900768</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>34.55541033175706</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>142.0968555152071</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>183.0665499694573</v>
       </c>
     </row>
     <row r="7">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>173.6197263596732</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,7 +27783,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6555953037877</v>
@@ -27792,7 +27792,7 @@
         <v>150.3543942759101</v>
       </c>
       <c r="I7" t="n">
-        <v>115.2918344467884</v>
+        <v>115.2918344467883</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>117.249668337144</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,13 +27828,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>17.64002815424953</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>122.2722852802033</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>6.193308483573617</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>33.91007409977237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>157.400437785612</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.201830685535357e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.51582450295488e-12</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29019,7 +29019,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>-9.831888791845538e-13</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -29035,13 +29035,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.977009678754914</v>
+        <v>2.977009678754918</v>
       </c>
       <c r="H5" t="n">
-        <v>30.48830037254877</v>
+        <v>30.48830037254882</v>
       </c>
       <c r="I5" t="n">
-        <v>114.7711656401989</v>
+        <v>114.7711656401991</v>
       </c>
       <c r="J5" t="n">
-        <v>252.6699752222251</v>
+        <v>252.6699752222255</v>
       </c>
       <c r="K5" t="n">
-        <v>378.6867949239207</v>
+        <v>378.6867949239212</v>
       </c>
       <c r="L5" t="n">
-        <v>469.7944548801165</v>
+        <v>469.7944548801172</v>
       </c>
       <c r="M5" t="n">
-        <v>522.7368507546742</v>
+        <v>522.7368507546749</v>
       </c>
       <c r="N5" t="n">
-        <v>531.1952795044366</v>
+        <v>531.1952795044374</v>
       </c>
       <c r="O5" t="n">
-        <v>501.5926395113174</v>
+        <v>501.5926395113182</v>
       </c>
       <c r="P5" t="n">
-        <v>428.0977130670554</v>
+        <v>428.097713067056</v>
       </c>
       <c r="Q5" t="n">
-        <v>321.4835539466449</v>
+        <v>321.4835539466454</v>
       </c>
       <c r="R5" t="n">
-        <v>187.0045842330885</v>
+        <v>187.0045842330888</v>
       </c>
       <c r="S5" t="n">
-        <v>67.83860805462767</v>
+        <v>67.83860805462777</v>
       </c>
       <c r="T5" t="n">
-        <v>13.03185986874964</v>
+        <v>13.03185986874966</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2381607743003931</v>
+        <v>0.2381607743003934</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.592840603118727</v>
+        <v>1.592840603118729</v>
       </c>
       <c r="H6" t="n">
-        <v>15.38348687748876</v>
+        <v>15.38348687748879</v>
       </c>
       <c r="I6" t="n">
-        <v>54.84122251965793</v>
+        <v>54.84122251965802</v>
       </c>
       <c r="J6" t="n">
-        <v>150.4885062797391</v>
+        <v>150.4885062797393</v>
       </c>
       <c r="K6" t="n">
-        <v>257.2088266886938</v>
+        <v>257.2088266886942</v>
       </c>
       <c r="L6" t="n">
-        <v>345.8490090236517</v>
+        <v>345.8490090236522</v>
       </c>
       <c r="M6" t="n">
-        <v>403.5894808867055</v>
+        <v>403.5894808867061</v>
       </c>
       <c r="N6" t="n">
-        <v>414.2712935277956</v>
+        <v>414.2712935277963</v>
       </c>
       <c r="O6" t="n">
-        <v>378.9772991113227</v>
+        <v>378.9772991113233</v>
       </c>
       <c r="P6" t="n">
-        <v>304.1626937657156</v>
+        <v>304.162693765716</v>
       </c>
       <c r="Q6" t="n">
-        <v>203.3247057595063</v>
+        <v>203.3247057595066</v>
       </c>
       <c r="R6" t="n">
-        <v>98.89584025328381</v>
+        <v>98.89584025328396</v>
       </c>
       <c r="S6" t="n">
-        <v>29.58631558863072</v>
+        <v>29.58631558863077</v>
       </c>
       <c r="T6" t="n">
-        <v>6.420265413447849</v>
+        <v>6.420265413447859</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1047921449420216</v>
+        <v>0.1047921449420217</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.335384054671006</v>
+        <v>1.335384054671008</v>
       </c>
       <c r="H7" t="n">
-        <v>11.8727782315295</v>
+        <v>11.87277823152952</v>
       </c>
       <c r="I7" t="n">
-        <v>40.15864048046991</v>
+        <v>40.15864048046997</v>
       </c>
       <c r="J7" t="n">
-        <v>94.41165266524014</v>
+        <v>94.41165266524028</v>
       </c>
       <c r="K7" t="n">
-        <v>155.147347442686</v>
+        <v>155.1473474426862</v>
       </c>
       <c r="L7" t="n">
-        <v>198.5351893644513</v>
+        <v>198.5351893644516</v>
       </c>
       <c r="M7" t="n">
-        <v>209.3275204972014</v>
+        <v>209.3275204972018</v>
       </c>
       <c r="N7" t="n">
-        <v>204.3501799297915</v>
+        <v>204.3501799297918</v>
       </c>
       <c r="O7" t="n">
-        <v>188.7504662002256</v>
+        <v>188.7504662002259</v>
       </c>
       <c r="P7" t="n">
-        <v>161.5086314849369</v>
+        <v>161.5086314849372</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.8202047961331</v>
+        <v>111.8202047961333</v>
       </c>
       <c r="R7" t="n">
-        <v>60.04372304002541</v>
+        <v>60.0437230400255</v>
       </c>
       <c r="S7" t="n">
-        <v>23.27210211640289</v>
+        <v>23.27210211640293</v>
       </c>
       <c r="T7" t="n">
-        <v>5.705731869957934</v>
+        <v>5.705731869957943</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07283913025478224</v>
+        <v>0.07283913025478235</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,25 +31677,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869144</v>
+        <v>4.833130601869145</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.4972987763924</v>
       </c>
       <c r="I11" t="n">
         <v>186.3292675285604</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203918</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975128</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544658</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954562</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.387576118017</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956807</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.010221962036</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.923732282597</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696629</v>
+        <v>303.599140169663</v>
       </c>
       <c r="S11" t="n">
-        <v>110.1349635900932</v>
+        <v>110.1349635900933</v>
       </c>
       <c r="T11" t="n">
-        <v>21.15702920968219</v>
+        <v>21.1570292096822</v>
       </c>
       <c r="U11" t="n">
         <v>0.3866504481495315</v>
@@ -31829,43 +31829,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858573</v>
+        <v>2.585952849858574</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837096</v>
+        <v>24.97486041837097</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469213</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193138</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.5746757598382</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>156.4572543240557</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821482</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>672.5632370340506</v>
       </c>
       <c r="O12" t="n">
-        <v>615.2639659924474</v>
+        <v>615.2639659924475</v>
       </c>
       <c r="P12" t="n">
-        <v>411.2476038555594</v>
+        <v>493.8035753383447</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047541</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
-        <v>48.03293999627653</v>
+        <v>48.03293999627655</v>
       </c>
       <c r="T12" t="n">
         <v>10.42320468868433</v>
@@ -31926,10 +31926,10 @@
         <v>322.3189048100542</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770065</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.759454853103</v>
       </c>
       <c r="O13" t="n">
         <v>306.4335533806239</v>
@@ -31938,16 +31938,16 @@
         <v>262.2068429493065</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194575</v>
+        <v>181.5384268194576</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811713</v>
       </c>
       <c r="S13" t="n">
         <v>37.7819090449354</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377487</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32078,28 +32078,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>539.0475940357389</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
@@ -32321,13 +32321,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>489.3502824033309</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>491.597732526532</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
@@ -32552,13 +32552,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>248.0319961154043</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>547.6926421044561</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32567,10 +32567,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,22 +32783,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,10 +33026,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>216.857296338707</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>396.970088694367</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33670,7 +33670,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
         <v>790.8204499236507</v>
@@ -33737,10 +33737,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>592.1874941409601</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33755,7 +33755,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,19 +34205,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>360.3952288121461</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,7 +34229,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34451,7 +34451,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34781,7 +34781,7 @@
         <v>68.2907269326837</v>
       </c>
       <c r="L3" t="n">
-        <v>205.4003814606424</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M3" t="n">
         <v>181.3104407622268</v>
@@ -34796,7 +34796,7 @@
         <v>109.7875025528269</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.96660727472408</v>
+        <v>89.75123316395873</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34869,7 +34869,7 @@
         <v>207.9023887233376</v>
       </c>
       <c r="O4" t="n">
-        <v>115.3609804484367</v>
+        <v>115.3609804484368</v>
       </c>
       <c r="P4" t="n">
         <v>126.7147238369854</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>71.62407069553882</v>
+        <v>71.62407069553919</v>
       </c>
       <c r="K5" t="n">
-        <v>158.5969438789401</v>
+        <v>158.5969438789407</v>
       </c>
       <c r="L5" t="n">
-        <v>234.0280399101292</v>
+        <v>234.02803991013</v>
       </c>
       <c r="M5" t="n">
-        <v>292.3906175274014</v>
+        <v>292.3906175274022</v>
       </c>
       <c r="N5" t="n">
-        <v>301.7822159078457</v>
+        <v>301.7822159078465</v>
       </c>
       <c r="O5" t="n">
-        <v>271.4944280896307</v>
+        <v>271.4944280896315</v>
       </c>
       <c r="P5" t="n">
-        <v>196.8647173117859</v>
+        <v>196.8647173117865</v>
       </c>
       <c r="Q5" t="n">
-        <v>99.17786407219543</v>
+        <v>99.17786407219594</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>74.9222915986075</v>
+        <v>149.7419149534814</v>
       </c>
       <c r="K6" t="n">
-        <v>119.3673877143348</v>
+        <v>119.3673877143352</v>
       </c>
       <c r="L6" t="n">
-        <v>207.2946292437775</v>
+        <v>207.294629243778</v>
       </c>
       <c r="M6" t="n">
-        <v>261.4554469646872</v>
+        <v>396.7131113456643</v>
       </c>
       <c r="N6" t="n">
-        <v>282.9295814444623</v>
+        <v>282.929581444463</v>
       </c>
       <c r="O6" t="n">
-        <v>236.3810546668783</v>
+        <v>236.3810546668789</v>
       </c>
       <c r="P6" t="n">
-        <v>170.1882863513853</v>
+        <v>170.1882863513858</v>
       </c>
       <c r="Q6" t="n">
-        <v>273.4202194093339</v>
+        <v>63.34293167348511</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.052472548567366</v>
+        <v>1.052472548567508</v>
       </c>
       <c r="K7" t="n">
-        <v>132.8778556168031</v>
+        <v>132.8778556168033</v>
       </c>
       <c r="L7" t="n">
-        <v>226.1252146247674</v>
+        <v>226.1252146247677</v>
       </c>
       <c r="M7" t="n">
-        <v>248.911397459042</v>
+        <v>248.9113974590423</v>
       </c>
       <c r="N7" t="n">
-        <v>248.4823523090201</v>
+        <v>248.4823523090204</v>
       </c>
       <c r="O7" t="n">
-        <v>213.3355941142653</v>
+        <v>213.3355941142655</v>
       </c>
       <c r="P7" t="n">
-        <v>158.7871907498304</v>
+        <v>158.7871907498306</v>
       </c>
       <c r="Q7" t="n">
-        <v>25.6581615444387</v>
+        <v>25.65816154443887</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>553.5225306839454</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>214.7252067506235</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937055</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.7024857525323</v>
       </c>
       <c r="L11" t="n">
         <v>526.9378424844786</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681835</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214258</v>
+        <v>632.974512521426</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739939</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067664</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081475</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553085</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526471</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7332367854791</v>
+        <v>279.7332367854792</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>17.90287454418153</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601299</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>541.2215249507174</v>
       </c>
       <c r="O12" t="n">
-        <v>472.667721548003</v>
+        <v>472.6677215480031</v>
       </c>
       <c r="P12" t="n">
-        <v>277.2731964412292</v>
+        <v>359.8291679240144</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187326</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655351</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186281</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070198</v>
+        <v>229.6099018070199</v>
       </c>
       <c r="L13" t="n">
-        <v>349.9089300703703</v>
+        <v>349.9089300703704</v>
       </c>
       <c r="M13" t="n">
         <v>379.423969638847</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323314</v>
+        <v>375.8916272323315</v>
       </c>
       <c r="O13" t="n">
         <v>331.0186812946636</v>
@@ -35586,7 +35586,7 @@
         <v>259.4854022142</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.3763835677632</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35726,28 +35726,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>396.4513495912944</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -35969,13 +35969,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>347.2162484813126</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>349.0014880820875</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
@@ -36200,13 +36200,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>405.5586081824378</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36215,10 +36215,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010467</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36431,22 +36431,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37318,7 +37318,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
@@ -37385,10 +37385,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>453.6331143610859</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37403,7 +37403,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,19 +37853,19 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>222.5537898377871</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,7 +37877,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38099,7 +38099,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
